--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.21215267451325</v>
+        <v>92.96703957252311</v>
       </c>
       <c r="D2" t="n">
-        <v>7.81112019696249</v>
+        <v>7.62635669778884</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.54129912364064</v>
+        <v>90.17851533701703</v>
       </c>
       <c r="D3" t="n">
-        <v>8.379656888208633</v>
+        <v>7.41089150659627</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.28664047001777</v>
+        <v>88.66462155248466</v>
       </c>
       <c r="D4" t="n">
-        <v>7.528665431302233</v>
+        <v>8.214857052124326</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.74949076537123</v>
+        <v>89.1320115519619</v>
       </c>
       <c r="D5" t="n">
-        <v>8.251468035645884</v>
+        <v>7.667351876917492</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.17244999157529</v>
+        <v>87.44708483033665</v>
       </c>
       <c r="D6" t="n">
-        <v>8.109414947934003</v>
+        <v>8.214718853160417</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.35231910662273</v>
+        <v>85.86668572411347</v>
       </c>
       <c r="D7" t="n">
-        <v>7.85220262544419</v>
+        <v>8.332099476546626</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.80634485619831</v>
+        <v>87.10639440528125</v>
       </c>
       <c r="D8" t="n">
-        <v>8.937208513399176</v>
+        <v>8.055572657095693</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.1309658490831</v>
+        <v>85.8190721684246</v>
       </c>
       <c r="D9" t="n">
-        <v>7.940766805646172</v>
+        <v>6.867880479509818</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.92102720019402</v>
+        <v>83.28589654444551</v>
       </c>
       <c r="D10" t="n">
-        <v>8.736784807049773</v>
+        <v>7.79000953227079</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.33765375750517</v>
+        <v>83.05775927412709</v>
       </c>
       <c r="D11" t="n">
-        <v>7.949694834476186</v>
+        <v>8.200588277205313</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.01553199341426</v>
+        <v>81.47732298805875</v>
       </c>
       <c r="D12" t="n">
-        <v>8.544604266809669</v>
+        <v>7.495990715780406</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.51403119890652</v>
+        <v>79.41197152573453</v>
       </c>
       <c r="D13" t="n">
-        <v>8.499018815990221</v>
+        <v>7.833172901802258</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.39452716946144</v>
+        <v>78.41713033551596</v>
       </c>
       <c r="D14" t="n">
-        <v>7.305653117623094</v>
+        <v>8.348000103511588</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.08289214357775</v>
+        <v>77.82319541103762</v>
       </c>
       <c r="D15" t="n">
-        <v>6.749232885227846</v>
+        <v>7.984515677896081</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.24554011948297</v>
+        <v>77.52105749265714</v>
       </c>
       <c r="D16" t="n">
-        <v>8.834094848583371</v>
+        <v>6.868646901224638</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.31965376181677</v>
+        <v>76.68841013386722</v>
       </c>
       <c r="D17" t="n">
-        <v>9.085682269255866</v>
+        <v>7.786917126903695</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.54338844200839</v>
+        <v>75.0544255329461</v>
       </c>
       <c r="D18" t="n">
-        <v>8.074646142622989</v>
+        <v>8.231390855598544</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.31977252455007</v>
+        <v>74.34247130361443</v>
       </c>
       <c r="D19" t="n">
-        <v>8.766853486693243</v>
+        <v>6.822511446204307</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.21510793840193</v>
+        <v>72.33642773121754</v>
       </c>
       <c r="D20" t="n">
-        <v>6.90085563045682</v>
+        <v>7.819356632650936</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.55250540194001</v>
+        <v>70.51346762029439</v>
       </c>
       <c r="D21" t="n">
-        <v>8.894555331611075</v>
+        <v>6.917018104997438</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.55847720939542</v>
+        <v>72.09040068632645</v>
       </c>
       <c r="D22" t="n">
-        <v>7.353008033898337</v>
+        <v>7.714759776310594</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.35478585715315</v>
+        <v>70.05260684228426</v>
       </c>
       <c r="D23" t="n">
-        <v>7.474833203940187</v>
+        <v>7.475719750336897</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.25467129026885</v>
+        <v>68.64987097660078</v>
       </c>
       <c r="D24" t="n">
-        <v>6.818322862870134</v>
+        <v>7.777912907480926</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.66922345868338</v>
+        <v>70.18405942409022</v>
       </c>
       <c r="D25" t="n">
-        <v>9.002343510310936</v>
+        <v>7.40976958725699</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.61891683915661</v>
+        <v>66.28151231467344</v>
       </c>
       <c r="D26" t="n">
-        <v>8.741563357375663</v>
+        <v>7.403166748859759</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.30007102889974</v>
+        <v>66.06163780705657</v>
       </c>
       <c r="D27" t="n">
-        <v>7.73018574191411</v>
+        <v>7.001691599320628</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.06911460966329</v>
+        <v>65.66099723673589</v>
       </c>
       <c r="D28" t="n">
-        <v>7.945759281776429</v>
+        <v>8.22418396558704</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.64487042631262</v>
+        <v>63.66584805613765</v>
       </c>
       <c r="D29" t="n">
-        <v>8.19460051246214</v>
+        <v>8.027773616663445</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.87712422081999</v>
+        <v>62.71713139257128</v>
       </c>
       <c r="D30" t="n">
-        <v>7.292617875349317</v>
+        <v>7.600408173826241</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.68983589560064</v>
+        <v>61.16708443266556</v>
       </c>
       <c r="D31" t="n">
-        <v>8.03123934843898</v>
+        <v>7.617030013966064</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.43659679540071</v>
+        <v>59.76690462997166</v>
       </c>
       <c r="D32" t="n">
-        <v>7.82032711562679</v>
+        <v>8.433733883042795</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.98979301645314</v>
+        <v>59.01439557159363</v>
       </c>
       <c r="D33" t="n">
-        <v>6.571479081573948</v>
+        <v>8.045160137707454</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.60405578665798</v>
+        <v>58.17814820058191</v>
       </c>
       <c r="D34" t="n">
-        <v>7.758954225858633</v>
+        <v>8.20061030279183</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.32311826029311</v>
+        <v>58.79015041228546</v>
       </c>
       <c r="D35" t="n">
-        <v>7.522874221105928</v>
+        <v>7.432648921284257</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.23786261559066</v>
+        <v>57.32044440362581</v>
       </c>
       <c r="D36" t="n">
-        <v>8.216245295001785</v>
+        <v>8.32122203086948</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.30508321907026</v>
+        <v>56.23126590707806</v>
       </c>
       <c r="D37" t="n">
-        <v>7.800538313143566</v>
+        <v>7.572802455740297</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.04249543841533</v>
+        <v>54.10693517499595</v>
       </c>
       <c r="D38" t="n">
-        <v>7.883264133626465</v>
+        <v>8.37422095275697</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.7685990242112</v>
+        <v>53.75225879933893</v>
       </c>
       <c r="D39" t="n">
-        <v>7.942192318199702</v>
+        <v>7.281231260147962</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.27912619125024</v>
+        <v>53.30005963119357</v>
       </c>
       <c r="D40" t="n">
-        <v>7.458049351783227</v>
+        <v>8.723786271917158</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.2940670261528</v>
+        <v>51.07315184302436</v>
       </c>
       <c r="D41" t="n">
-        <v>7.184298739940168</v>
+        <v>7.243929908008196</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.18854266830451</v>
+        <v>50.00991767139439</v>
       </c>
       <c r="D42" t="n">
-        <v>8.088985786709756</v>
+        <v>7.416694827492443</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.43653506438997</v>
+        <v>49.56598888189934</v>
       </c>
       <c r="D43" t="n">
-        <v>9.383086401527459</v>
+        <v>8.946210816897841</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.10213698890604</v>
+        <v>48.99534008728202</v>
       </c>
       <c r="D44" t="n">
-        <v>8.034264227873191</v>
+        <v>7.042155577210677</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.84695516891807</v>
+        <v>46.60575025465705</v>
       </c>
       <c r="D45" t="n">
-        <v>8.694947953740915</v>
+        <v>7.904226938690843</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.78331060602116</v>
+        <v>45.88881417725764</v>
       </c>
       <c r="D46" t="n">
-        <v>6.603495918388416</v>
+        <v>8.053537882987705</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.59394482765961</v>
+        <v>46.39864362933122</v>
       </c>
       <c r="D47" t="n">
-        <v>8.333311049997516</v>
+        <v>8.341418516290354</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.10256903143361</v>
+        <v>43.54343654239132</v>
       </c>
       <c r="D48" t="n">
-        <v>7.136317135131423</v>
+        <v>6.760781187422277</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.05721351044028</v>
+        <v>43.41425980205467</v>
       </c>
       <c r="D49" t="n">
-        <v>7.739078553789322</v>
+        <v>8.296092201611094</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.27205082968413</v>
+        <v>40.9295679973963</v>
       </c>
       <c r="D50" t="n">
-        <v>7.537291295049156</v>
+        <v>7.601295901569436</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.05410903998495</v>
+        <v>40.22453371819746</v>
       </c>
       <c r="D51" t="n">
-        <v>6.558779464398319</v>
+        <v>8.442080094171988</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.70676590064016</v>
+        <v>40.75560587989823</v>
       </c>
       <c r="D52" t="n">
-        <v>7.810058964210731</v>
+        <v>6.95540350066866</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.32892345955118</v>
+        <v>38.9015915166808</v>
       </c>
       <c r="D53" t="n">
-        <v>7.610115223624176</v>
+        <v>8.345264388507569</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.67222005362299</v>
+        <v>38.29529745324005</v>
       </c>
       <c r="D54" t="n">
-        <v>7.733589728300097</v>
+        <v>6.858151576765899</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.71570482023212</v>
+        <v>37.67447801524516</v>
       </c>
       <c r="D55" t="n">
-        <v>7.494999182143042</v>
+        <v>7.514805845223335</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.76467490801797</v>
+        <v>37.09753062727228</v>
       </c>
       <c r="D56" t="n">
-        <v>7.588611961490176</v>
+        <v>8.122207525657524</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.83992297732778</v>
+        <v>34.0117034625497</v>
       </c>
       <c r="D57" t="n">
-        <v>8.143266884165802</v>
+        <v>6.331092123790956</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.826025973544</v>
+        <v>33.560003610294</v>
       </c>
       <c r="D58" t="n">
-        <v>9.147907696746405</v>
+        <v>7.017147148208175</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.23137164977805</v>
+        <v>32.6445321422184</v>
       </c>
       <c r="D59" t="n">
-        <v>7.42002997143985</v>
+        <v>7.077547320097509</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.71993405708672</v>
+        <v>32.56701771396311</v>
       </c>
       <c r="D60" t="n">
-        <v>7.688913786235269</v>
+        <v>7.640014368081482</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.35452912059797</v>
+        <v>31.36016251719309</v>
       </c>
       <c r="D61" t="n">
-        <v>8.337177851018426</v>
+        <v>7.674726819254978</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.89914587613217</v>
+        <v>31.06320475424172</v>
       </c>
       <c r="D62" t="n">
-        <v>7.822691682791182</v>
+        <v>7.713034773179383</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86850381248896</v>
+        <v>29.47249446049945</v>
       </c>
       <c r="D63" t="n">
-        <v>7.407879350853924</v>
+        <v>7.694410084112723</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.59606812214351</v>
+        <v>26.97004935720785</v>
       </c>
       <c r="D64" t="n">
-        <v>7.521434647209993</v>
+        <v>7.694077287788523</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.37470812079298</v>
+        <v>27.69403095125834</v>
       </c>
       <c r="D65" t="n">
-        <v>7.583045067556776</v>
+        <v>8.431079215733675</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.93430075549223</v>
+        <v>26.25164658244766</v>
       </c>
       <c r="D66" t="n">
-        <v>7.494861204931207</v>
+        <v>8.546573976813704</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.38436921805475</v>
+        <v>24.77726575456742</v>
       </c>
       <c r="D67" t="n">
-        <v>7.972903765531359</v>
+        <v>7.289619399344057</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.59194219606002</v>
+        <v>23.34441680961687</v>
       </c>
       <c r="D68" t="n">
-        <v>7.774792434330548</v>
+        <v>7.466042859055894</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.58295157504653</v>
+        <v>23.39453015861048</v>
       </c>
       <c r="D69" t="n">
-        <v>7.542274580084694</v>
+        <v>7.571707391673433</v>
       </c>
     </row>
   </sheetData>
